--- a/fourth_pass/welfare_results/isoelastic/analysis_results/f_change_isoelastic.xlsx
+++ b/fourth_pass/welfare_results/isoelastic/analysis_results/f_change_isoelastic.xlsx
@@ -618,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
